--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\on_working_project_code\Hendrix_github\Hendrix_M_Lite_GD\sw\project_files\Hendrix_M\Release\Hendrix_LiteV3_Notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7635" tabRatio="664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15327" windowHeight="7642" tabRatio="664"/>
   </bookViews>
   <sheets>
     <sheet name="Release History" sheetId="9" r:id="rId1"/>
@@ -17,7 +22,7 @@
     <definedName name="Priority">[1]List!$B$2:$B$4</definedName>
     <definedName name="Status">[1]List!$C$2:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
   <si>
     <t>HDMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,24 +139,52 @@
   </si>
   <si>
     <t>4.0.2</t>
+  </si>
+  <si>
+    <t>7.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zound_Hendrix_M_Lite_V3_hwEVT_btswv7.0.1_20220224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For V3 version EVT build</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3 EVT Firmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zound_Hendrix_M_Lite_V3_hwEVT_btswv7.0.2_20220317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release to resolve the issues in 7.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -242,7 +275,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -513,7 +546,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -636,7 +669,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -671,7 +704,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,36 +881,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="34.75" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -902,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -927,7 +960,7 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -941,7 +974,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3" si="0">B3</f>
+        <f t="shared" ref="E3:E14" si="0">B3</f>
         <v>1.0.0</v>
       </c>
       <c r="F3" s="3"/>
@@ -957,7 +990,7 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -971,7 +1004,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="3" t="str">
-        <f t="shared" ref="E4" si="1">B4</f>
+        <f t="shared" si="0"/>
         <v>1.0.1</v>
       </c>
       <c r="F4" s="3"/>
@@ -987,7 +1020,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="3" t="str">
-        <f t="shared" ref="E5" si="2">B5</f>
+        <f t="shared" si="0"/>
         <v>2.0.0</v>
       </c>
       <c r="F5" s="3"/>
@@ -1017,7 +1050,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="3" t="str">
-        <f t="shared" ref="E6" si="3">B6</f>
+        <f t="shared" si="0"/>
         <v>2.0.1</v>
       </c>
       <c r="F6" s="3"/>
@@ -1047,7 +1080,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1094,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="str">
-        <f t="shared" ref="E7:E12" si="4">B7</f>
+        <f t="shared" si="0"/>
         <v>2.0.2</v>
       </c>
       <c r="F7" s="3"/>
@@ -1077,7 +1110,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1091,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.1.0</v>
       </c>
       <c r="F8" s="3"/>
@@ -1107,7 +1140,7 @@
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1121,7 +1154,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.1.2</v>
       </c>
       <c r="F9" s="3"/>
@@ -1137,7 +1170,7 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.2.0</v>
       </c>
       <c r="F10" s="3"/>
@@ -1167,7 +1200,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1181,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.2.1</v>
       </c>
       <c r="F11" s="3"/>
@@ -1197,7 +1230,7 @@
       </c>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1211,7 +1244,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>4.0.0</v>
       </c>
       <c r="F12" s="3"/>
@@ -1227,7 +1260,7 @@
       </c>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1241,7 +1274,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f t="shared" ref="E13" si="5">B13</f>
+        <f t="shared" si="0"/>
         <v>4.0.1</v>
       </c>
       <c r="F13" s="3"/>
@@ -1257,7 +1290,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1271,7 +1304,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f t="shared" ref="E14" si="6">B14</f>
+        <f t="shared" si="0"/>
         <v>4.0.2</v>
       </c>
       <c r="F14" s="3"/>
@@ -1287,7 +1320,7 @@
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="6"/>
@@ -1300,33 +1333,69 @@
       <c r="J15" s="3"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6">
+        <v>44616</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H16" s="3">
+        <v>3.1</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44637</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.1</v>
+      </c>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="6"/>
@@ -1339,7 +1408,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="6"/>
@@ -1352,7 +1421,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="6"/>
@@ -1365,7 +1434,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="6"/>
@@ -1378,7 +1447,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="6"/>
@@ -1391,7 +1460,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="6"/>
@@ -1404,7 +1473,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="6"/>
@@ -1417,7 +1486,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="6"/>
@@ -1430,7 +1499,7 @@
       <c r="J25" s="3"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="6"/>
@@ -1443,7 +1512,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="6"/>
@@ -1456,7 +1525,7 @@
       <c r="J27" s="3"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="6"/>
@@ -1469,7 +1538,7 @@
       <c r="J28" s="3"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="6"/>
@@ -1482,7 +1551,7 @@
       <c r="J29" s="3"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="6"/>
@@ -1495,7 +1564,7 @@
       <c r="J30" s="3"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6"/>

--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\on_working_project_code\Hendrix_github\Hendrix_M_Lite_GD\sw\project_files\Hendrix_M\Release\Hendrix_LiteV3_Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\on_working_project_code\Hendrix_M_Lite_GD_nick\sw\project_files\Hendrix_M\Release\Hendrix_LiteV3_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>HDMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>Release to resolve the issues in 7.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zound_Hendrix_M_Lite_V3_hwEVT_btswv7.0.3_20220331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BT output gain correct. Tone play flow corrected.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,7 +907,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.25"/>
@@ -906,7 +918,7 @@
     <col min="4" max="4" width="57.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="34.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="47.625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1396,17 +1408,35 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6">
+        <v>44651</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.1</v>
+      </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="7"/>
+      <c r="J18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1594,6 +1624,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14454</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
+      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14454</Url>
+      <Description>6TCUH2D2FU37-209-14454</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1641,27 +1692,6 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14454</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
-      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14454</Url>
-      <Description>6TCUH2D2FU37-209-14454</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1810,9 +1840,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC868924-2FB4-4B6E-A7E3-A0A4F09EF3D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F69B7F1-42EF-4214-B878-B6DFF3AEC870}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1826,17 +1864,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F69B7F1-42EF-4214-B878-B6DFF3AEC870}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC868924-2FB4-4B6E-A7E3-A0A4F09EF3D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>HDMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>BT output gain correct. Tone play flow corrected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zound_Hendrix_M_Lite_V3_hwEVT_btswv7.0.4_20220415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolve the recoonection issues.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1439,17 +1451,35 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6">
+        <v>44666</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3.1</v>
+      </c>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1624,27 +1654,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14454</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
-      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14454</Url>
-      <Description>6TCUH2D2FU37-209-14454</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1692,6 +1701,27 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14454</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
+      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14454</Url>
+      <Description>6TCUH2D2FU37-209-14454</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1840,17 +1870,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F69B7F1-42EF-4214-B878-B6DFF3AEC870}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC868924-2FB4-4B6E-A7E3-A0A4F09EF3D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1864,9 +1886,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC868924-2FB4-4B6E-A7E3-A0A4F09EF3D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F69B7F1-42EF-4214-B878-B6DFF3AEC870}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\on_working_project_code\Hendrix_M_Lite_GD_nick\sw\project_files\Hendrix_M\Release\Hendrix_LiteV3_Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working_project_code\Hendrix_M_Lite_GD_nick\sw\project_files\Hendrix_M\Release\Hendrix_LiteV3_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>HDMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,26 @@
   </si>
   <si>
     <t>Resolve the recoonection issues.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zound_Hendrix_M_Lite_V3_hwEVT_btswv7.0.5_20220429</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolve the multi point recoonection issues. Audio cue related issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zound_Hendrix_M_Lite_V3_hwEVT_btswv7.0.6_20220513</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,7 +939,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.25"/>
@@ -930,7 +950,7 @@
     <col min="4" max="4" width="57.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="9" style="1"/>
     <col min="10" max="10" width="11.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="47.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="60.5" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1482,29 +1502,63 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6">
+        <v>44680</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3.1</v>
+      </c>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="6">
+        <v>44680</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3.1</v>
+      </c>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1654,6 +1708,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14454</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
+      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14454</Url>
+      <Description>6TCUH2D2FU37-209-14454</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1701,27 +1776,6 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14454</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
-      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14454</Url>
-      <Description>6TCUH2D2FU37-209-14454</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1870,9 +1924,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC868924-2FB4-4B6E-A7E3-A0A4F09EF3D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F69B7F1-42EF-4214-B878-B6DFF3AEC870}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1886,17 +1948,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F69B7F1-42EF-4214-B878-B6DFF3AEC870}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC868924-2FB4-4B6E-A7E3-A0A4F09EF3D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>HDMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,22 @@
   </si>
   <si>
     <t>Zound_Hendrix_M_Lite_V3_hwEVT_btswv7.0.6_20220513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improve the reconnection and audio cue related issues.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zound_Hendrix_M_Lite_V3_hwEVT_btswv7.0.7_20220513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resolve the BRH-11. Modify AVCTP to V1.4.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,7 +955,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1556,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="6">
-        <v>44680</v>
+        <v>44694</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>45</v>
@@ -1559,20 +1575,40 @@
       <c r="J21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="6">
+        <v>44699</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3.1</v>
+      </c>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="7"/>
+      <c r="J22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1708,27 +1744,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14454</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
-      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14454</Url>
-      <Description>6TCUH2D2FU37-209-14454</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1776,6 +1791,27 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14454</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
+      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14454</Url>
+      <Description>6TCUH2D2FU37-209-14454</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1924,17 +1960,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F69B7F1-42EF-4214-B878-B6DFF3AEC870}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC868924-2FB4-4B6E-A7E3-A0A4F09EF3D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1948,9 +1976,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC868924-2FB4-4B6E-A7E3-A0A4F09EF3D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F69B7F1-42EF-4214-B878-B6DFF3AEC870}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Release history.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
   <si>
     <t>HDMI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,22 @@
   </si>
   <si>
     <t>To resolve BRH-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3 MP Firmware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zound_Hendrix_M_Lite_V3_hwEVT_btswv7.1.0_20220718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify the amp RT9120S output PWM to 768KHz to lower the power consumption.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,7 +1003,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1735,18 +1751,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+    <row r="26" spans="1:11" ht="32.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="6">
+        <v>44760</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="3">
+        <v>3.1</v>
+      </c>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="7"/>
+      <c r="J26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
